--- a/TechCrunch_hand.xlsx
+++ b/TechCrunch_hand.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
-  <si>
-    <t xml:space="preserve">Startup </t>
-  </si>
-  <si>
-    <t>Decoded Fashion</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>%e2%80%8bnew-app-%e2%80%8btagly-%e2%80%8bbets-on-%e2%80%8bconnect%e2%80%8bing%e2%80%8b-consumers-with-brand-content</t>
   </si>
@@ -42,9 +33,6 @@
     <t>200 millions</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>Dan Gilberts Rockbridge Ventures</t>
   </si>
   <si>
@@ -105,9 +93,6 @@
     <t>Blue Run Ventures</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>The Series A</t>
   </si>
   <si>
@@ -168,9 +153,6 @@
     <t>3d-touch-opens-a-new-dimension-of-user-interaction.txt</t>
   </si>
   <si>
-    <t>Funding, funded, seed money, raise</t>
-  </si>
-  <si>
     <t>$500,000</t>
   </si>
   <si>
@@ -232,6 +214,18 @@
   </si>
   <si>
     <t>6-insights-into-the-french-saas-landscape.txt</t>
+  </si>
+  <si>
+    <t>Number of funding</t>
+  </si>
+  <si>
+    <t>Ventures</t>
+  </si>
+  <si>
+    <t>Series of startup</t>
+  </si>
+  <si>
+    <t>name of file</t>
   </si>
 </sst>
 </file>
@@ -327,8 +321,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -704,395 +701,389 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="135">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="60">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="75">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="60">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="105">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="60">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="60">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45">
+      <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="75">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="60">
+      <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="60">
+      <c r="A31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45">
+      <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="D32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="75">
+      <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="45">
+      <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="75">
+      <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="60">
+      <c r="A36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="60">
+      <c r="A37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="45">
+      <c r="A38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D32" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
+      <c r="D38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="60">
+      <c r="A39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
+      <c r="D39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="75">
+      <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
+      <c r="D40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="45">
+      <c r="A41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
+      <c r="D41" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/TechCrunch_hand.xlsx
+++ b/TechCrunch_hand.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -704,7 +704,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
